--- a/inst/TaskList.xlsx
+++ b/inst/TaskList.xlsx
@@ -452,7 +452,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/inst/TaskList.xlsx
+++ b/inst/TaskList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>Category</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Explicitly note what problems exist in each one of the example datasets</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -490,6 +493,15 @@
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">

--- a/inst/TaskList.xlsx
+++ b/inst/TaskList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Category</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>Function name</t>
   </si>
 </sst>
 </file>
@@ -452,22 +455,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.42578125" style="1"/>
     <col min="2" max="2" width="57.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="29.42578125" style="1"/>
-    <col min="6" max="6" width="107.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="29.42578125" style="1"/>
+    <col min="3" max="6" width="29.42578125" style="1"/>
+    <col min="7" max="7" width="107.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="29.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,16 +481,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -497,25 +503,25 @@
       <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E2" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -523,7 +529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -531,7 +537,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -539,7 +545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -547,7 +553,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -555,18 +561,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -574,47 +580,47 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>28</v>
       </c>
     </row>

--- a/inst/TaskList.xlsx
+++ b/inst/TaskList.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 

--- a/inst/TaskList.xlsx
+++ b/inst/TaskList.xlsx
@@ -11,13 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$15</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <t>Category</t>
   </si>
@@ -49,74 +51,182 @@
     <t>Include sampleID and Param in message to user</t>
   </si>
   <si>
-    <t>Find and replace values &lt;LOD w/ 1/2LOD</t>
-  </si>
-  <si>
-    <t>Formatting</t>
-  </si>
-  <si>
-    <t>Warn if NO2,SRP,PtCoN samptime misssing</t>
-  </si>
-  <si>
-    <t>Rename weird params</t>
-  </si>
-  <si>
     <t>Check for characters in results column</t>
   </si>
   <si>
     <t>Change ODU's to their actual purpose</t>
   </si>
   <si>
-    <t>Background</t>
-  </si>
-  <si>
     <t>Create list of possible parameters to check against</t>
   </si>
   <si>
-    <t xml:space="preserve">What's the best way to do this? Create an .rda file? Could we then use freely within functions? </t>
-  </si>
-  <si>
     <t>Create LOD workbook</t>
   </si>
   <si>
     <t>Read samplemaster output</t>
   </si>
   <si>
-    <t>use readxl::read_excel() for .xls</t>
-  </si>
-  <si>
     <t>Format data output type</t>
   </si>
   <si>
-    <t>Probably output as Excel so the user can open it easily.</t>
-  </si>
-  <si>
-    <t>Data read</t>
-  </si>
-  <si>
-    <t>Once decided on QC output type, read as same, check for invalid data input type</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
     <t>Update documentation for smast_ex1-3</t>
   </si>
   <si>
-    <t>Explicitly note what problems exist in each one of the example datasets</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
     <t>Function name</t>
+  </si>
+  <si>
+    <t>Remove "bad_params" rows from data</t>
+  </si>
+  <si>
+    <t>clean_sample_data()</t>
+  </si>
+  <si>
+    <t>qc_flag = "REMOVED"</t>
+  </si>
+  <si>
+    <t>read_raw_data()</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Find and replace values &lt;LOD w/ "&lt;lod"</t>
+  </si>
+  <si>
+    <t>flag_below_lod()</t>
+  </si>
+  <si>
+    <t>Error if NO2,SRP,PtCoN samptime misssing</t>
+  </si>
+  <si>
+    <t>rename_if_present()</t>
+  </si>
+  <si>
+    <t>Removed degree symbol due to unicode error</t>
+  </si>
+  <si>
+    <t>Internal Data</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To update --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data-raw/internal_data.R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and then inst/fix_CMD_errors/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rebuild_internal_data.R</t>
+    </r>
+  </si>
+  <si>
+    <t>External Data</t>
+  </si>
+  <si>
+    <t>inst/extdata/LOD_values.xlsx</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Helper within </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R/clean_sample_data.R</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">requires lod_data() (not exported) which reads the internal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inst/extdata/LOD_values.xlsx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> data</t>
+    </r>
+  </si>
+  <si>
+    <t>Example Data</t>
+  </si>
+  <si>
+    <t>Examples renamed to inform what issue is with each</t>
+  </si>
+  <si>
+    <t>Create QC dataframe, export it to data location</t>
+  </si>
+  <si>
+    <t>add_flag/add_note()</t>
+  </si>
+  <si>
+    <t>Exports an exact copy of input data with "qc_flag" and "qc_notes" columns appended</t>
+  </si>
+  <si>
+    <t>Check SampleType column</t>
+  </si>
+  <si>
+    <t>Will replace missing/blank with FD if found in "Site", else will error</t>
+  </si>
+  <si>
+    <t>Allow user to add LOD units</t>
+  </si>
+  <si>
+    <t>append_lod()</t>
+  </si>
+  <si>
+    <t>Needs testing as of 1/20/26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +237,20 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -152,9 +276,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -482,7 +608,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -502,13 +628,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="F2" s="2">
+        <v>46042</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -524,10 +650,25 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2">
+        <v>46042</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -535,15 +676,27 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2">
+        <v>46042</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -551,34 +704,73 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2">
+        <v>46042</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="2">
+        <v>46042</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -586,10 +778,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -597,32 +786,102 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="2">
+        <v>46042</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="2">
+        <v>46042</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="2">
+        <v>46042</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/inst/TaskList.xlsx
+++ b/inst/TaskList.xlsx
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>Include sampleID and Param in message to user</t>
   </si>
   <si>
     <t>Check for characters in results column</t>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>Needs testing as of 1/20/26</t>
+  </si>
+  <si>
+    <t>within flag_below_lod() there is coercion to numeric which will warn about NA's being introduced</t>
   </si>
 </sst>
 </file>
@@ -584,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -608,7 +608,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -628,10 +628,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2">
         <v>46042</v>
@@ -645,7 +645,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -653,22 +653,22 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2">
         <v>46042</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -676,16 +676,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2">
         <v>46042</v>
@@ -696,7 +696,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -704,50 +704,50 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2">
         <v>46042</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -755,22 +755,22 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="F10" s="2">
         <v>46042</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -778,7 +778,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -786,36 +786,36 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2">
         <v>46042</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -823,22 +823,22 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="2">
         <v>46042</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -846,22 +846,22 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" s="2">
         <v>46042</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -869,19 +869,19 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
